--- a/MVP_02/SHOPPING_LISTS/PRECISION MICRO/PRECISION MICRO.xlsx
+++ b/MVP_02/SHOPPING_LISTS/PRECISION MICRO/PRECISION MICRO.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>

--- a/MVP_02/SHOPPING_LISTS/PRECISION MICRO/PRECISION MICRO.xlsx
+++ b/MVP_02/SHOPPING_LISTS/PRECISION MICRO/PRECISION MICRO.xlsx
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
